--- a/pred_ohlcv/54_21/2019-10-27 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 REP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-331.4302</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-331.4302</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-103.8453</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-127.5147</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-122.7267</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>372.7744271168831</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>283.9856271168832</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>359.2011271168832</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1504.051792761235</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1447.178592761235</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1470.067192761235</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1470.067192761235</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1463.138692761235</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1448.138692761235</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1348.138692761235</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1370.549892761235</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1381.549892761235</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1481.549892761235</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1472.027892761235</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1393.932792761235</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1319.777292761235</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1283.630092761235</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1254.711892761235</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1226.621292761235</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 REP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-331.4302</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-331.4302</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-295.9572</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-295.9572</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-295.9572</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-318.3702</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-103.8453</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-127.5147</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-122.7267</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>372.7744271168831</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>283.9856271168832</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>359.2011271168832</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1504.051792761235</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1399.051792761235</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1447.178592761235</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1470.067192761235</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1470.067192761235</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1463.138692761235</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1448.138692761235</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1348.138692761235</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1370.549892761235</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1381.549892761235</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1481.549892761235</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1472.027892761235</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1393.932792761235</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1319.777292761235</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1283.630092761235</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1264.075292761235</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1226.621292761235</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
